--- a/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:56:13+00:00</t>
+    <t>2024-10-01T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T20:52:52+00:00</t>
+    <t>2024-10-10T23:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T23:13:09+00:00</t>
+    <t>2024-10-11T20:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:59:30+00:00</t>
+    <t>2024-10-11T21:12:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T21:12:40+00:00</t>
+    <t>2024-10-11T22:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:07:31+00:00</t>
+    <t>2024-10-11T22:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T18:40:48+00:00</t>
+    <t>2025-05-29T22:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>11</t>
+    <t>10</t>
   </si>
   <si>
     <t>Level</t>
@@ -157,12 +157,6 @@
   </si>
   <si>
     <t>DEATH distributions inform a source system subscriber that they have a record that is out-of-sync with the Date of Death, or the Deceased indicator is added to the Composite View. For non-source systems the DEATH distribution informs a subscribing system there is a Date of Death, or the Deceased indicator is added.</t>
-  </si>
-  <si>
-    <t>EID</t>
-  </si>
-  <si>
-    <t>EID distributions work for subscribers that are source systems and informs them when one of their source records has changed entity sets and/or is out-of-sync with the Composite View.</t>
   </si>
   <si>
     <t>NEW</t>
@@ -541,7 +535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -597,10 +591,10 @@
         <v>48</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -608,13 +602,13 @@
         <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -622,13 +616,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +630,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>57</v>
@@ -653,10 +647,10 @@
         <v>59</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +658,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -678,13 +672,13 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -692,27 +686,13 @@
         <v>41</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>68</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>69</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T22:30:32+00:00</t>
+    <t>2025-08-19T23:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>10</t>
+    <t>9</t>
   </si>
   <si>
     <t>Level</t>
@@ -147,7 +147,7 @@
     <t>Composite View</t>
   </si>
   <si>
-    <t>COMP distributions inform a subscribing source system that their records are out-of-sync with the Composite View. For non-source system, the Composite View distribution informs a subscriber when a data attribute has been modified on a specific source.</t>
+    <t>The Composite View distribution serves different business purposes depending on whether or not the subscriber is a source system. For a source system, Composite View distributions inform a subscribing system that its records are out-of-sync with the composite view. For a non-source system, Composite View distributions inform a subscriber when a data attribute has been modified on a specific source.</t>
   </si>
   <si>
     <t>DEATH</t>
@@ -156,7 +156,7 @@
     <t>Death</t>
   </si>
   <si>
-    <t>DEATH distributions inform a source system subscriber that they have a record that is out-of-sync with the Date of Death, or the Deceased indicator is added to the Composite View. For non-source systems the DEATH distribution informs a subscribing system there is a Date of Death, or the Deceased indicator is added.</t>
+    <t>A Death Distributions notifications inform subscribers of both confirmed and unconfirmed deaths. This occurs when just the Date of Death is present, or both the Date of Death and Deceased indicator are present in the Composite View. There are some behavior differences depending on whether or not the subscriber is a source system. For a source system, Death distributions inform a subscriber that they have a record that is out-of-sync with the Date of Death, or the Deceased indicator is added to the Composite View. For a non-source system, Death distributions inform a subscribing system that there is a Date of Death, or the Deceased indicator is added.</t>
   </si>
   <si>
     <t>NEW</t>
@@ -165,7 +165,7 @@
     <t>New</t>
   </si>
   <si>
-    <t>The NEW distribution is a non-source distribution that informs subscribers of all new records. Any source can trigger a NEW distribution, and subscribers can limit the source they subscribe to.</t>
+    <t>The NEW distribution is a non-source distribution that informs subscribers of all new records. Any source can trigger a NEW distribution, and subscribers can limit the sources they subscribe to. For instnce, if a subscriber wants to be notified of new PHNs, they subscribe to the MOH_CRS source.</t>
   </si>
   <si>
     <t>NEWBORN</t>
@@ -174,16 +174,16 @@
     <t>Newborn</t>
   </si>
   <si>
-    <t>This is a non-source distribution that informs subscribers that a newborn record has been created in the EMPI and has been assigned a PHN. Typically, subscribers would limit their source subscription to MOH_CRS for this distribution.</t>
-  </si>
-  <si>
-    <t>NEWBORN_GENDER_CHANGE</t>
-  </si>
-  <si>
-    <t>Newborn Gender Change</t>
-  </si>
-  <si>
-    <t>A non-source distribution and informs subscribers when the gender on a newborn record changes from unknown or undifferentiated to any other gender value. This distribution is used to ensure that pre-registered newborns (where the gender is frequently unknown) are registered for MSP benefits. MSP does not allow the registration of newborns with an unknown gender value. The NEWBOR_GENDER_CHANGE distribution is sent out as a Newborn distribution; however, it has a different triggered mechanism. As such, while the distribution message is mapped and delivered as a NEWBORN distribution, it is logged as a NEWBORN_GENDER_CHANGE in the transaction tables.</t>
+    <t>A Newborn distribution is a non-source distribution that informs subscribers that a newborn record has been created and has been assigned a PHN. Typically, subscribers would limit their source subscription to MOH_CRS for this distribution.</t>
+  </si>
+  <si>
+    <t>NEWBORN_GENDER</t>
+  </si>
+  <si>
+    <t>Newborn Gender</t>
+  </si>
+  <si>
+    <t>The Newborn Gender distribution is a non-source distribution and informs subscribers when the gender on a newborn record changes from unknown or undifferentiated to Male or Female. This distribution is used to ensure that pre-registered newborns (where the gender is frequently unknown) are registered for MSP benefits. MSP does not allow the registration of newborns with an unknown gender value.</t>
   </si>
   <si>
     <t>PHN</t>
@@ -198,7 +198,7 @@
     <t>PHN Join</t>
   </si>
   <si>
-    <t>A PHNJOIN distribution only works for subscribers that are source systems and informs source systems that their record has joined an entity with a PHN, or a PHN has joined its entity.</t>
+    <t>A PHNJOIN distribution works for subscribers that are source and non-source systems and informs them that their record has joined an entity with a PHN, or a PHN has joined its entity. For source systems, PHNJOIN distribution informs a subscriber that one of the following has occured: their record has created a PHN, their record has joined the set of an existing PHN, their record moved from a non-survivor PHN to a survivor PHN when the PHNs were merged. For non-source systems, PHNJOIN distribution informs non-source subscribers that a specific source they are listening to has joined a set with a PHN.</t>
   </si>
   <si>
     <t>MERGE</t>
@@ -207,7 +207,7 @@
     <t>Merge</t>
   </si>
   <si>
-    <t>MERGE is a non-source distribution and informs subscribers of merged PHNs or SRIs. MERGE distributions can be triggered by any source. All distribution profiles can limit the sources they subscribe to; therefore, if a subscriber only wants to be notified of a PHN merge, they subscribe to the MOH_CRS source. If they want to be notified of a SRI merge, they subscribe to the require source.</t>
+    <t>MERGE is a non-source distribution and informs subscribers of merged PHNs or Source Record Identifiers (SRIs). Merge distributions can be triggered by any source. All distribution profiles can limit the sources they subscribe to; therefore, if a subscriber only wants to be notified of a PHN merge, they subscribe to the MOH_CRS source. If they want to be notified of a SRI merge, they subscribe to the required source.</t>
   </si>
   <si>
     <t>SSRISYNC</t>
@@ -216,13 +216,7 @@
     <t>SSRI Sync</t>
   </si>
   <si>
-    <t>SSRISYNC distributions apply only to subscribers that are source systems and are used to notify a parent source system when one of its child system’s records has joined or changed within an entity set. SSRISYNC distributions support PHSA and the Clinical and Systems Transformation project (CST). In this project, multiple sources (VCHA, PHC, and PHSA) are implementing a single Cerner CIS (VPP Cerner) accross all their facilities and replacing multiple existing systems. As part of this effort, all patients are issued a new SRI; existing SRIs are recorded and stored for historical use only. The new Cerner CIS is loading the SRI from the old system as the SSRI in the new system. The new CIS will be deployed to facilities over several years and the patients will be migrated from their existing systems to the new CIS as their facilities go live and the legacy system is decommissioned.</t>
-  </si>
-  <si>
-    <t>CRS</t>
-  </si>
-  <si>
-    <t>CRS distributions are a special case and have different business objectives for their respective events compared to normal distributions. CRS distributions create an maintain a Composite View History in the EMPI and synchronize the CRS record with the Composite View. The MDM is updated, and no messages (FHIR or HL7v3) are sent out to the connected partner.</t>
+    <t>An SSRI Sync distribution applies only to subscribers that are source systems and are used to notify a parent source system when one of its child systems' records has joined or changed within an entity set. SSRI Sync distributions support PHSA and the Clinical and Systems Transformation project (CST). In this project, multiple sources (VCHA, PHC, and PHSA) are implementing a single Cerner CIS (VPP Cerner) across all their facilities and replacing multiple existing systems. As part of this effort, all patients are issued a new SRI; existing SRIs are recorded and stored for historical use only. The new Cerner CIS is loading the SRI from the old system as the SSRI in the new system. The new CIS will be deployed to facilities over several years, and the patients will be migrated from their existing systems to the new CIS as their facility goes live and the legacy system is decommissioned.</t>
   </si>
 </sst>
 </file>
@@ -535,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -681,20 +675,6 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/release-branch/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T23:36:05+00:00</t>
+    <t>2025-08-27T22:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
